--- a/data/option/MSFT_2021-06-15_call_revised.xlsx
+++ b/data/option/MSFT_2021-06-15_call_revised.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Maturity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>lastPrice</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
@@ -465,18 +460,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>163.4</v>
       </c>
       <c r="E2" t="n">
-        <v>163.4</v>
-      </c>
-      <c r="F2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -485,18 +477,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C3" t="n">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>124.25</v>
       </c>
       <c r="E3" t="n">
-        <v>124.25</v>
-      </c>
-      <c r="F3" t="n">
         <v>18</v>
       </c>
     </row>
@@ -505,18 +494,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>109.09</v>
       </c>
       <c r="E4" t="n">
-        <v>109.09</v>
-      </c>
-      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +511,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C5" t="n">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>89.78</v>
       </c>
       <c r="E5" t="n">
-        <v>89.78</v>
-      </c>
-      <c r="F5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -545,18 +528,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="C6" t="n">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="F6" t="n">
         <v>17</v>
       </c>
     </row>
@@ -565,18 +545,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="C7" t="n">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>78.06</v>
       </c>
       <c r="E7" t="n">
-        <v>78.06</v>
-      </c>
-      <c r="F7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -585,18 +562,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="C8" t="n">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>74</v>
-      </c>
-      <c r="F8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -605,18 +579,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="C9" t="n">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>68.15000000000001</v>
-      </c>
-      <c r="F9" t="n">
         <v>17</v>
       </c>
     </row>
@@ -625,18 +596,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="C10" t="n">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>63.45</v>
       </c>
       <c r="E10" t="n">
-        <v>63.45</v>
-      </c>
-      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,18 +613,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
-      </c>
-      <c r="F11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -665,18 +630,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="C12" t="n">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>53.25</v>
       </c>
       <c r="E12" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="F12" t="n">
         <v>33</v>
       </c>
     </row>
@@ -685,18 +647,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="C13" t="n">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>44.16</v>
       </c>
       <c r="E13" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="F13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -705,18 +664,15 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>242.5</v>
       </c>
       <c r="C14" t="n">
-        <v>242.5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>17.1</v>
       </c>
       <c r="E14" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F14" t="n">
         <v>70</v>
       </c>
     </row>
@@ -725,18 +681,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="C15" t="n">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F15" t="n">
         <v>18</v>
       </c>
     </row>
@@ -745,18 +698,15 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="C16" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F16" t="n">
         <v>21</v>
       </c>
     </row>
@@ -765,18 +715,15 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="C17" t="n">
-        <v>305</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -785,18 +732,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="C18" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -805,36 +749,30 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C19" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="n">
         <v>117.64</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="C20" t="n">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>73.11</v>
       </c>
       <c r="E20" t="n">
-        <v>73.11</v>
-      </c>
-      <c r="F20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -843,18 +781,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>58.53</v>
       </c>
       <c r="E21" t="n">
-        <v>58.53</v>
-      </c>
-      <c r="F21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -863,36 +798,30 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="C22" t="n">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" t="n">
         <v>51.65</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="C23" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>28.51</v>
       </c>
       <c r="E23" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="F23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -901,18 +830,15 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="C24" t="n">
-        <v>235</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>22.58</v>
       </c>
       <c r="E24" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="F24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -921,18 +847,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="C25" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>18.4</v>
       </c>
       <c r="E25" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -941,18 +864,15 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96</v>
+        <v>242.5</v>
       </c>
       <c r="C26" t="n">
-        <v>242.5</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>16.22</v>
       </c>
       <c r="E26" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="F26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,18 +881,15 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="C27" t="n">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>0.06</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -981,36 +898,30 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="C28" t="n">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
-      </c>
-      <c r="E28" t="n">
         <v>87.5</v>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="C29" t="n">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>28.15</v>
       </c>
       <c r="E29" t="n">
-        <v>28.15</v>
-      </c>
-      <c r="F29" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1019,18 +930,15 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>134</v>
+        <v>242.5</v>
       </c>
       <c r="C30" t="n">
-        <v>242.5</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="E30" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F30" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1039,18 +947,15 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>136</v>
+        <v>247.5</v>
       </c>
       <c r="C31" t="n">
-        <v>247.5</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>12.95</v>
       </c>
       <c r="E31" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="F31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +964,15 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>150</v>
+        <v>282.5</v>
       </c>
       <c r="C32" t="n">
-        <v>282.5</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>0.12</v>
       </c>
       <c r="E32" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F32" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1079,18 +981,15 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="C33" t="n">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F33" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1099,72 +998,60 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C34" t="n">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="D34" t="n">
-        <v>24</v>
-      </c>
-      <c r="E34" t="n">
         <v>110.9</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C35" t="n">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D35" t="n">
-        <v>24</v>
-      </c>
-      <c r="E35" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="D36" t="n">
-        <v>24</v>
-      </c>
-      <c r="E36" t="n">
         <v>57.51</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C37" t="n">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="D37" t="n">
-        <v>24</v>
+        <v>28.57</v>
       </c>
       <c r="E37" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="F37" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1173,18 +1060,15 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="C38" t="n">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>23.47</v>
       </c>
       <c r="E38" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="F38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,18 +1077,15 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>165</v>
+        <v>237.5</v>
       </c>
       <c r="C39" t="n">
-        <v>237.5</v>
+        <v>24</v>
       </c>
       <c r="D39" t="n">
-        <v>24</v>
+        <v>21.2</v>
       </c>
       <c r="E39" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F39" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1213,18 +1094,15 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="C40" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>18.6</v>
       </c>
       <c r="E40" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1233,18 +1111,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>167</v>
+        <v>242.5</v>
       </c>
       <c r="C41" t="n">
-        <v>242.5</v>
+        <v>24</v>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
+        <v>17.7</v>
       </c>
       <c r="E41" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="F41" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1253,18 +1128,15 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="C42" t="n">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="D42" t="n">
-        <v>24</v>
+        <v>15.4</v>
       </c>
       <c r="E42" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F42" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1273,18 +1145,15 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>181</v>
+        <v>277.5</v>
       </c>
       <c r="C43" t="n">
-        <v>277.5</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
-        <v>24</v>
+        <v>0.28</v>
       </c>
       <c r="E43" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F43" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1293,18 +1162,15 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="C44" t="n">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
-        <v>24</v>
+        <v>0.11</v>
       </c>
       <c r="E44" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F44" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1313,18 +1179,15 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="C45" t="n">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>0.1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F45" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1333,18 +1196,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="C46" t="n">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>0.09</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1353,18 +1213,15 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="C47" t="n">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
-        <v>24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F47" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1373,18 +1230,15 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C48" t="n">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>63.69</v>
       </c>
       <c r="E48" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="F48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1247,15 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C49" t="n">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
-        <v>31</v>
+        <v>59.82</v>
       </c>
       <c r="E49" t="n">
-        <v>59.82</v>
-      </c>
-      <c r="F49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1413,18 +1264,15 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C50" t="n">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>54.85</v>
       </c>
       <c r="E50" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="F50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1433,18 +1281,15 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="C51" t="n">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
-        <v>31</v>
+        <v>0.13</v>
       </c>
       <c r="E51" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F51" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1453,18 +1298,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="C52" t="n">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>31</v>
+        <v>0.09</v>
       </c>
       <c r="E52" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F52" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1473,18 +1315,15 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="C53" t="n">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
-        <v>31</v>
+        <v>0.06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1493,18 +1332,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="C54" t="n">
-        <v>325</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
-        <v>31</v>
+        <v>0.05</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1513,18 +1349,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="C55" t="n">
-        <v>330</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
-        <v>31</v>
+        <v>0.05</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F55" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1533,18 +1366,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="C56" t="n">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>31</v>
+        <v>0.02</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F56" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1553,18 +1383,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C57" t="n">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D57" t="n">
-        <v>38</v>
+        <v>39.79</v>
       </c>
       <c r="E57" t="n">
-        <v>39.79</v>
-      </c>
-      <c r="F57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1573,36 +1400,30 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C58" t="n">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="D58" t="n">
-        <v>38</v>
-      </c>
-      <c r="E58" t="n">
         <v>33.53</v>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C59" t="n">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
-        <v>38</v>
+        <v>29.04</v>
       </c>
       <c r="E59" t="n">
-        <v>29.04</v>
-      </c>
-      <c r="F59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1611,18 +1432,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C60" t="n">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="D60" t="n">
-        <v>38</v>
+        <v>24.55</v>
       </c>
       <c r="E60" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="F60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1631,18 +1449,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>252</v>
+        <v>237.5</v>
       </c>
       <c r="C61" t="n">
-        <v>237.5</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
-        <v>38</v>
+        <v>23.67</v>
       </c>
       <c r="E61" t="n">
-        <v>23.67</v>
-      </c>
-      <c r="F61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1651,18 +1466,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C62" t="n">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="D62" t="n">
-        <v>38</v>
+        <v>21.09</v>
       </c>
       <c r="E62" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="F62" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1671,18 +1483,15 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>254</v>
+        <v>242.5</v>
       </c>
       <c r="C63" t="n">
-        <v>242.5</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
+        <v>18.86</v>
       </c>
       <c r="E63" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="F63" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1691,18 +1500,15 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" t="n">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="D64" t="n">
-        <v>38</v>
+        <v>16.97</v>
       </c>
       <c r="E64" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="F64" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1711,18 +1517,15 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>256</v>
+        <v>247.5</v>
       </c>
       <c r="C65" t="n">
-        <v>247.5</v>
+        <v>38</v>
       </c>
       <c r="D65" t="n">
-        <v>38</v>
+        <v>14.18</v>
       </c>
       <c r="E65" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="F65" t="n">
         <v>37</v>
       </c>
     </row>
@@ -1731,18 +1534,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>258</v>
+        <v>252.5</v>
       </c>
       <c r="C66" t="n">
-        <v>252.5</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
-        <v>38</v>
+        <v>11.3</v>
       </c>
       <c r="E66" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1751,18 +1551,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>260</v>
+        <v>257.5</v>
       </c>
       <c r="C67" t="n">
-        <v>257.5</v>
+        <v>38</v>
       </c>
       <c r="D67" t="n">
-        <v>38</v>
+        <v>7.7</v>
       </c>
       <c r="E67" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1771,18 +1568,15 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>268</v>
+        <v>277.5</v>
       </c>
       <c r="C68" t="n">
-        <v>277.5</v>
+        <v>38</v>
       </c>
       <c r="D68" t="n">
-        <v>38</v>
+        <v>1.2</v>
       </c>
       <c r="E68" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F68" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1791,18 +1585,15 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C69" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="D69" t="n">
-        <v>38</v>
+        <v>0.41</v>
       </c>
       <c r="E69" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1811,18 +1602,15 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C70" t="n">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="D70" t="n">
-        <v>38</v>
+        <v>0.28</v>
       </c>
       <c r="E70" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F70" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1831,18 +1619,15 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C71" t="n">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="D71" t="n">
-        <v>38</v>
+        <v>0.28</v>
       </c>
       <c r="E71" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1851,18 +1636,15 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C72" t="n">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="D72" t="n">
-        <v>38</v>
+        <v>0.18</v>
       </c>
       <c r="E72" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F72" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1871,54 +1653,45 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C73" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>45</v>
-      </c>
-      <c r="E73" t="n">
         <v>34.07</v>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="C74" t="n">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>45</v>
-      </c>
-      <c r="E74" t="n">
         <v>24</v>
       </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>277</v>
+        <v>242.5</v>
       </c>
       <c r="C75" t="n">
-        <v>242.5</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>45</v>
+        <v>19.07</v>
       </c>
       <c r="E75" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="F75" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1927,18 +1700,15 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>278</v>
+        <v>247.5</v>
       </c>
       <c r="C76" t="n">
-        <v>247.5</v>
+        <v>45</v>
       </c>
       <c r="D76" t="n">
-        <v>45</v>
+        <v>14.68</v>
       </c>
       <c r="E76" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="F76" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1947,18 +1717,15 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C77" t="n">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="D77" t="n">
-        <v>45</v>
+        <v>13.75</v>
       </c>
       <c r="E77" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="F77" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1967,18 +1734,15 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>288</v>
+        <v>272.5</v>
       </c>
       <c r="C78" t="n">
-        <v>272.5</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>45</v>
+        <v>2.47</v>
       </c>
       <c r="E78" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="F78" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1987,18 +1751,15 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C79" t="n">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>45</v>
+        <v>0.9</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F79" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2007,18 +1768,15 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C80" t="n">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="D80" t="n">
-        <v>45</v>
+        <v>0.52</v>
       </c>
       <c r="E80" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="F80" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2027,18 +1785,15 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="C81" t="n">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="D81" t="n">
-        <v>66</v>
+        <v>54.32</v>
       </c>
       <c r="E81" t="n">
-        <v>54.32</v>
-      </c>
-      <c r="F81" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2047,18 +1802,15 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="C82" t="n">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="D82" t="n">
-        <v>66</v>
+        <v>48.79</v>
       </c>
       <c r="E82" t="n">
-        <v>48.79</v>
-      </c>
-      <c r="F82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2067,18 +1819,15 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="C83" t="n">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="D83" t="n">
-        <v>66</v>
+        <v>45.15</v>
       </c>
       <c r="E83" t="n">
-        <v>45.15</v>
-      </c>
-      <c r="F83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2087,18 +1836,15 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="C84" t="n">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="D84" t="n">
-        <v>66</v>
+        <v>36.59</v>
       </c>
       <c r="E84" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="F84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2107,18 +1853,15 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C85" t="n">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="D85" t="n">
-        <v>66</v>
+        <v>0.96</v>
       </c>
       <c r="E85" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F85" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2127,18 +1870,15 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C86" t="n">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="D86" t="n">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="E86" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2147,18 +1887,15 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C87" t="n">
-        <v>320</v>
+        <v>66</v>
       </c>
       <c r="D87" t="n">
-        <v>66</v>
+        <v>0.2</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F87" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2167,18 +1904,15 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C88" t="n">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="D88" t="n">
-        <v>66</v>
+        <v>0.16</v>
       </c>
       <c r="E88" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F88" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2187,18 +1921,15 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C89" t="n">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="D89" t="n">
-        <v>66</v>
+        <v>0.12</v>
       </c>
       <c r="E89" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2207,18 +1938,15 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>355</v>
+        <v>145</v>
       </c>
       <c r="C90" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D90" t="n">
-        <v>94</v>
+        <v>112.45</v>
       </c>
       <c r="E90" t="n">
-        <v>112.45</v>
-      </c>
-      <c r="F90" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2227,18 +1955,15 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>356</v>
+        <v>150</v>
       </c>
       <c r="C91" t="n">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D91" t="n">
-        <v>94</v>
+        <v>108.3</v>
       </c>
       <c r="E91" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="F91" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2247,18 +1972,15 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>357</v>
+        <v>155</v>
       </c>
       <c r="C92" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="D92" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E92" t="n">
-        <v>103</v>
-      </c>
-      <c r="F92" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2267,18 +1989,15 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>359</v>
+        <v>165</v>
       </c>
       <c r="C93" t="n">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="D93" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E93" t="n">
-        <v>93</v>
-      </c>
-      <c r="F93" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2287,18 +2006,15 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="C94" t="n">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="D94" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E94" t="n">
-        <v>90</v>
-      </c>
-      <c r="F94" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2307,18 +2023,15 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>368</v>
+        <v>210</v>
       </c>
       <c r="C95" t="n">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>94</v>
+        <v>50.3</v>
       </c>
       <c r="E95" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2327,18 +2040,15 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="C96" t="n">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="D96" t="n">
-        <v>94</v>
+        <v>44.98</v>
       </c>
       <c r="E96" t="n">
-        <v>44.98</v>
-      </c>
-      <c r="F96" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2347,18 +2057,15 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>373</v>
+        <v>235</v>
       </c>
       <c r="C97" t="n">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="D97" t="n">
-        <v>94</v>
+        <v>27.85</v>
       </c>
       <c r="E97" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="F97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2367,18 +2074,15 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="C98" t="n">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="D98" t="n">
-        <v>94</v>
+        <v>24.35</v>
       </c>
       <c r="E98" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="F98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2387,18 +2091,15 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="C99" t="n">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="D99" t="n">
-        <v>94</v>
+        <v>1.8</v>
       </c>
       <c r="E99" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2407,18 +2108,15 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="C100" t="n">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="D100" t="n">
-        <v>94</v>
+        <v>1.28</v>
       </c>
       <c r="E100" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="F100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2427,18 +2125,15 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="C101" t="n">
-        <v>300</v>
+        <v>94</v>
       </c>
       <c r="D101" t="n">
-        <v>94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F101" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2447,18 +2142,15 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="C102" t="n">
-        <v>325</v>
+        <v>94</v>
       </c>
       <c r="D102" t="n">
-        <v>94</v>
+        <v>0.31</v>
       </c>
       <c r="E102" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F102" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2467,18 +2159,15 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="C103" t="n">
-        <v>340</v>
+        <v>94</v>
       </c>
       <c r="D103" t="n">
-        <v>94</v>
+        <v>0.19</v>
       </c>
       <c r="E103" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F103" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2487,18 +2176,15 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="C104" t="n">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="D104" t="n">
-        <v>94</v>
+        <v>0.19</v>
       </c>
       <c r="E104" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F104" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2507,18 +2193,15 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="C105" t="n">
-        <v>350</v>
+        <v>94</v>
       </c>
       <c r="D105" t="n">
-        <v>94</v>
+        <v>0.16</v>
       </c>
       <c r="E105" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F105" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2527,18 +2210,15 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C106" t="n">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="D106" t="n">
-        <v>94</v>
+        <v>0.09</v>
       </c>
       <c r="E106" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F106" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2547,18 +2227,15 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="C107" t="n">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="D107" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="E107" t="n">
-        <v>61</v>
-      </c>
-      <c r="F107" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2567,18 +2244,15 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>423</v>
+        <v>220</v>
       </c>
       <c r="C108" t="n">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="D108" t="n">
-        <v>122</v>
+        <v>41.06</v>
       </c>
       <c r="E108" t="n">
-        <v>41.06</v>
-      </c>
-      <c r="F108" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2587,18 +2261,15 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>424</v>
+        <v>225</v>
       </c>
       <c r="C109" t="n">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="D109" t="n">
-        <v>122</v>
+        <v>38.13</v>
       </c>
       <c r="E109" t="n">
-        <v>38.13</v>
-      </c>
-      <c r="F109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2607,18 +2278,15 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>425</v>
+        <v>230</v>
       </c>
       <c r="C110" t="n">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="D110" t="n">
-        <v>122</v>
+        <v>32.75</v>
       </c>
       <c r="E110" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="F110" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2627,18 +2295,15 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>428</v>
+        <v>245</v>
       </c>
       <c r="C111" t="n">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="D111" t="n">
-        <v>122</v>
+        <v>21.52</v>
       </c>
       <c r="E111" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="F111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2647,18 +2312,15 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>429</v>
+        <v>250</v>
       </c>
       <c r="C112" t="n">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="D112" t="n">
-        <v>122</v>
+        <v>18.17</v>
       </c>
       <c r="E112" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="F112" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2667,18 +2329,15 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>438</v>
+        <v>295</v>
       </c>
       <c r="C113" t="n">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="D113" t="n">
-        <v>122</v>
+        <v>2.17</v>
       </c>
       <c r="E113" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F113" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2687,18 +2346,15 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>440</v>
+        <v>305</v>
       </c>
       <c r="C114" t="n">
-        <v>305</v>
+        <v>122</v>
       </c>
       <c r="D114" t="n">
-        <v>122</v>
+        <v>1.25</v>
       </c>
       <c r="E114" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F114" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2707,18 +2363,15 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>444</v>
+        <v>325</v>
       </c>
       <c r="C115" t="n">
-        <v>325</v>
+        <v>122</v>
       </c>
       <c r="D115" t="n">
-        <v>122</v>
+        <v>0.49</v>
       </c>
       <c r="E115" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F115" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2727,54 +2380,45 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>454</v>
+        <v>120</v>
       </c>
       <c r="C116" t="n">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="D116" t="n">
-        <v>157</v>
-      </c>
-      <c r="E116" t="n">
         <v>137.25</v>
       </c>
-      <c r="F116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>455</v>
+        <v>125</v>
       </c>
       <c r="C117" t="n">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D117" t="n">
-        <v>157</v>
-      </c>
-      <c r="E117" t="n">
         <v>132.75</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="C118" t="n">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="D118" t="n">
-        <v>157</v>
+        <v>51.55</v>
       </c>
       <c r="E118" t="n">
-        <v>51.55</v>
-      </c>
-      <c r="F118" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2783,18 +2427,15 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>472</v>
+        <v>220</v>
       </c>
       <c r="C119" t="n">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="D119" t="n">
-        <v>157</v>
+        <v>42.73</v>
       </c>
       <c r="E119" t="n">
-        <v>42.73</v>
-      </c>
-      <c r="F119" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2803,18 +2444,15 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>473</v>
+        <v>225</v>
       </c>
       <c r="C120" t="n">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="D120" t="n">
-        <v>157</v>
+        <v>38.58</v>
       </c>
       <c r="E120" t="n">
-        <v>38.58</v>
-      </c>
-      <c r="F120" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2823,18 +2461,15 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>476</v>
+        <v>240</v>
       </c>
       <c r="C121" t="n">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="D121" t="n">
-        <v>157</v>
+        <v>26.95</v>
       </c>
       <c r="E121" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="F121" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2843,18 +2478,15 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>477</v>
+        <v>245</v>
       </c>
       <c r="C122" t="n">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="D122" t="n">
-        <v>157</v>
+        <v>23.8</v>
       </c>
       <c r="E122" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +2495,15 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>478</v>
+        <v>250</v>
       </c>
       <c r="C123" t="n">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="D123" t="n">
-        <v>157</v>
+        <v>20.75</v>
       </c>
       <c r="E123" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="F123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +2512,15 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>481</v>
+        <v>265</v>
       </c>
       <c r="C124" t="n">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="D124" t="n">
-        <v>157</v>
+        <v>12.33</v>
       </c>
       <c r="E124" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="F124" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2903,18 +2529,15 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="C125" t="n">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="D125" t="n">
-        <v>157</v>
+        <v>5.55</v>
       </c>
       <c r="E125" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="F125" t="n">
         <v>83</v>
       </c>
     </row>
@@ -2923,18 +2546,15 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>492</v>
+        <v>320</v>
       </c>
       <c r="C126" t="n">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="D126" t="n">
-        <v>157</v>
+        <v>1.36</v>
       </c>
       <c r="E126" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="F126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,18 +2563,15 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>499</v>
+        <v>380</v>
       </c>
       <c r="C127" t="n">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="D127" t="n">
-        <v>157</v>
+        <v>0.27</v>
       </c>
       <c r="E127" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F127" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2963,18 +2580,15 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>503</v>
+        <v>85</v>
       </c>
       <c r="C128" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="D128" t="n">
-        <v>220</v>
+        <v>173.95</v>
       </c>
       <c r="E128" t="n">
-        <v>173.95</v>
-      </c>
-      <c r="F128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2983,18 +2597,15 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>510</v>
+        <v>120</v>
       </c>
       <c r="C129" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="D129" t="n">
-        <v>220</v>
+        <v>138.7</v>
       </c>
       <c r="E129" t="n">
-        <v>138.7</v>
-      </c>
-      <c r="F129" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3003,18 +2614,15 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>515</v>
+        <v>145</v>
       </c>
       <c r="C130" t="n">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="D130" t="n">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="E130" t="n">
-        <v>115</v>
-      </c>
-      <c r="F130" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3023,18 +2631,15 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>516</v>
+        <v>150</v>
       </c>
       <c r="C131" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="D131" t="n">
-        <v>220</v>
+        <v>110.2</v>
       </c>
       <c r="E131" t="n">
-        <v>110.2</v>
-      </c>
-      <c r="F131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,18 +2648,15 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>518</v>
+        <v>160</v>
       </c>
       <c r="C132" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="D132" t="n">
-        <v>220</v>
+        <v>99.75</v>
       </c>
       <c r="E132" t="n">
-        <v>99.75</v>
-      </c>
-      <c r="F132" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3063,18 +2665,15 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>519</v>
+        <v>165</v>
       </c>
       <c r="C133" t="n">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="D133" t="n">
-        <v>220</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="F133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3083,18 +2682,15 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="C134" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D134" t="n">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="E134" t="n">
-        <v>91</v>
-      </c>
-      <c r="F134" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3103,18 +2699,15 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>521</v>
+        <v>175</v>
       </c>
       <c r="C135" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="D135" t="n">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="E135" t="n">
-        <v>86</v>
-      </c>
-      <c r="F135" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3123,18 +2716,15 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>522</v>
+        <v>180</v>
       </c>
       <c r="C136" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D136" t="n">
-        <v>220</v>
+        <v>80.75</v>
       </c>
       <c r="E136" t="n">
-        <v>80.75</v>
-      </c>
-      <c r="F136" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3143,18 +2733,15 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>523</v>
+        <v>185</v>
       </c>
       <c r="C137" t="n">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D137" t="n">
-        <v>220</v>
+        <v>75.55</v>
       </c>
       <c r="E137" t="n">
-        <v>75.55</v>
-      </c>
-      <c r="F137" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3163,18 +2750,15 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>524</v>
+        <v>190</v>
       </c>
       <c r="C138" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="D138" t="n">
-        <v>220</v>
+        <v>70.5</v>
       </c>
       <c r="E138" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="F138" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3183,18 +2767,15 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>526</v>
+        <v>200</v>
       </c>
       <c r="C139" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D139" t="n">
-        <v>220</v>
+        <v>62.5</v>
       </c>
       <c r="E139" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="F139" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3203,18 +2784,15 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>527</v>
+        <v>205</v>
       </c>
       <c r="C140" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D140" t="n">
-        <v>220</v>
+        <v>58.15</v>
       </c>
       <c r="E140" t="n">
-        <v>58.15</v>
-      </c>
-      <c r="F140" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3223,18 +2801,15 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>529</v>
+        <v>215</v>
       </c>
       <c r="C141" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D141" t="n">
-        <v>220</v>
+        <v>50.1</v>
       </c>
       <c r="E141" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="F141" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3243,18 +2818,15 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>531</v>
+        <v>225</v>
       </c>
       <c r="C142" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D142" t="n">
-        <v>220</v>
+        <v>40.79</v>
       </c>
       <c r="E142" t="n">
-        <v>40.79</v>
-      </c>
-      <c r="F142" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3263,18 +2835,15 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>547</v>
+        <v>305</v>
       </c>
       <c r="C143" t="n">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="D143" t="n">
-        <v>220</v>
+        <v>4.1</v>
       </c>
       <c r="E143" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F143" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3283,18 +2852,15 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>548</v>
+        <v>310</v>
       </c>
       <c r="C144" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="D144" t="n">
-        <v>220</v>
+        <v>3.47</v>
       </c>
       <c r="E144" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F144" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3303,18 +2869,15 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>551</v>
+        <v>325</v>
       </c>
       <c r="C145" t="n">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="D145" t="n">
-        <v>220</v>
+        <v>2.1</v>
       </c>
       <c r="E145" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3323,18 +2886,15 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>553</v>
+        <v>335</v>
       </c>
       <c r="C146" t="n">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="D146" t="n">
-        <v>220</v>
+        <v>1.52</v>
       </c>
       <c r="E146" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="F146" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3343,18 +2903,15 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>555</v>
+        <v>345</v>
       </c>
       <c r="C147" t="n">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="D147" t="n">
-        <v>220</v>
+        <v>1.08</v>
       </c>
       <c r="E147" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="F147" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3363,18 +2920,15 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>563</v>
+        <v>390</v>
       </c>
       <c r="C148" t="n">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="D148" t="n">
-        <v>220</v>
+        <v>0.47</v>
       </c>
       <c r="E148" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F148" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3383,18 +2937,15 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="C149" t="n">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="D149" t="n">
-        <v>276</v>
+        <v>98.95</v>
       </c>
       <c r="E149" t="n">
-        <v>98.95</v>
-      </c>
-      <c r="F149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,18 +2954,15 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>584</v>
+        <v>180</v>
       </c>
       <c r="C150" t="n">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="D150" t="n">
-        <v>276</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +2971,15 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>586</v>
+        <v>190</v>
       </c>
       <c r="C151" t="n">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="D151" t="n">
-        <v>276</v>
+        <v>72.95</v>
       </c>
       <c r="E151" t="n">
-        <v>72.95</v>
-      </c>
-      <c r="F151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +2988,15 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>588</v>
+        <v>200</v>
       </c>
       <c r="C152" t="n">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="D152" t="n">
-        <v>276</v>
+        <v>62.8</v>
       </c>
       <c r="E152" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3463,18 +3005,15 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>591</v>
+        <v>215</v>
       </c>
       <c r="C153" t="n">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="D153" t="n">
-        <v>276</v>
+        <v>50.4</v>
       </c>
       <c r="E153" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3483,18 +3022,15 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>592</v>
+        <v>220</v>
       </c>
       <c r="C154" t="n">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="D154" t="n">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="E154" t="n">
-        <v>47</v>
-      </c>
-      <c r="F154" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3503,18 +3039,15 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>594</v>
+        <v>230</v>
       </c>
       <c r="C155" t="n">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="D155" t="n">
-        <v>276</v>
+        <v>39.5</v>
       </c>
       <c r="E155" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="F155" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3523,18 +3056,15 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>597</v>
+        <v>245</v>
       </c>
       <c r="C156" t="n">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="D156" t="n">
-        <v>276</v>
+        <v>28.3</v>
       </c>
       <c r="E156" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3543,18 +3073,15 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>599</v>
+        <v>255</v>
       </c>
       <c r="C157" t="n">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D157" t="n">
-        <v>276</v>
+        <v>23.95</v>
       </c>
       <c r="E157" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="F157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3090,15 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>601</v>
+        <v>265</v>
       </c>
       <c r="C158" t="n">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D158" t="n">
-        <v>276</v>
+        <v>18.3</v>
       </c>
       <c r="E158" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="F158" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3583,18 +3107,15 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>603</v>
+        <v>275</v>
       </c>
       <c r="C159" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D159" t="n">
-        <v>276</v>
+        <v>14.15</v>
       </c>
       <c r="E159" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="F159" t="n">
         <v>21</v>
       </c>
     </row>
@@ -3603,18 +3124,15 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>604</v>
+        <v>280</v>
       </c>
       <c r="C160" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D160" t="n">
-        <v>276</v>
+        <v>12.93</v>
       </c>
       <c r="E160" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="F160" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3623,18 +3141,15 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>605</v>
+        <v>285</v>
       </c>
       <c r="C161" t="n">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D161" t="n">
-        <v>276</v>
+        <v>10.7</v>
       </c>
       <c r="E161" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F161" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3643,18 +3158,15 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>606</v>
+        <v>290</v>
       </c>
       <c r="C162" t="n">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D162" t="n">
-        <v>276</v>
+        <v>9.34</v>
       </c>
       <c r="E162" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="F162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3663,18 +3175,15 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>609</v>
+        <v>305</v>
       </c>
       <c r="C163" t="n">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="D163" t="n">
-        <v>276</v>
+        <v>5.89</v>
       </c>
       <c r="E163" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F163" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3683,18 +3192,15 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>611</v>
+        <v>315</v>
       </c>
       <c r="C164" t="n">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="D164" t="n">
-        <v>276</v>
+        <v>4.35</v>
       </c>
       <c r="E164" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3209,15 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>612</v>
+        <v>320</v>
       </c>
       <c r="C165" t="n">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="D165" t="n">
-        <v>276</v>
+        <v>3.83</v>
       </c>
       <c r="E165" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F165" t="n">
         <v>104</v>
       </c>
     </row>
@@ -3723,18 +3226,15 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>613</v>
+        <v>325</v>
       </c>
       <c r="C166" t="n">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="D166" t="n">
-        <v>276</v>
+        <v>3.32</v>
       </c>
       <c r="E166" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3743,18 +3243,15 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>619</v>
+        <v>355</v>
       </c>
       <c r="C167" t="n">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="D167" t="n">
-        <v>276</v>
+        <v>1.49</v>
       </c>
       <c r="E167" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F167" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3763,18 +3260,15 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>621</v>
+        <v>365</v>
       </c>
       <c r="C168" t="n">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="D168" t="n">
-        <v>276</v>
+        <v>1.18</v>
       </c>
       <c r="E168" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="F168" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3783,18 +3277,15 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>645</v>
+        <v>175</v>
       </c>
       <c r="C169" t="n">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="D169" t="n">
-        <v>367</v>
+        <v>86.25</v>
       </c>
       <c r="E169" t="n">
-        <v>86.25</v>
-      </c>
-      <c r="F169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,18 +3294,15 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="C170" t="n">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="D170" t="n">
-        <v>367</v>
+        <v>65.06</v>
       </c>
       <c r="E170" t="n">
-        <v>65.06</v>
-      </c>
-      <c r="F170" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3823,18 +3311,15 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>653</v>
+        <v>215</v>
       </c>
       <c r="C171" t="n">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="D171" t="n">
-        <v>367</v>
+        <v>53.09</v>
       </c>
       <c r="E171" t="n">
-        <v>53.09</v>
-      </c>
-      <c r="F171" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3843,18 +3328,15 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>654</v>
+        <v>220</v>
       </c>
       <c r="C172" t="n">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="D172" t="n">
-        <v>367</v>
+        <v>49.7</v>
       </c>
       <c r="E172" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F172" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3863,18 +3345,15 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>655</v>
+        <v>225</v>
       </c>
       <c r="C173" t="n">
-        <v>225</v>
+        <v>367</v>
       </c>
       <c r="D173" t="n">
-        <v>367</v>
+        <v>45.6</v>
       </c>
       <c r="E173" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="F173" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3883,18 +3362,15 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>658</v>
+        <v>240</v>
       </c>
       <c r="C174" t="n">
-        <v>240</v>
+        <v>367</v>
       </c>
       <c r="D174" t="n">
-        <v>367</v>
+        <v>35.95</v>
       </c>
       <c r="E174" t="n">
-        <v>35.95</v>
-      </c>
-      <c r="F174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3903,18 +3379,15 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>659</v>
+        <v>245</v>
       </c>
       <c r="C175" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="D175" t="n">
-        <v>367</v>
+        <v>33.09</v>
       </c>
       <c r="E175" t="n">
-        <v>33.09</v>
-      </c>
-      <c r="F175" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3923,18 +3396,15 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>661</v>
+        <v>255</v>
       </c>
       <c r="C176" t="n">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="D176" t="n">
-        <v>367</v>
+        <v>27.93</v>
       </c>
       <c r="E176" t="n">
-        <v>27.93</v>
-      </c>
-      <c r="F176" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3943,18 +3413,15 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>665</v>
+        <v>275</v>
       </c>
       <c r="C177" t="n">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="D177" t="n">
-        <v>367</v>
+        <v>17.74</v>
       </c>
       <c r="E177" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="F177" t="n">
         <v>76</v>
       </c>
     </row>
@@ -3963,18 +3430,15 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>666</v>
+        <v>280</v>
       </c>
       <c r="C178" t="n">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="D178" t="n">
-        <v>367</v>
+        <v>16.48</v>
       </c>
       <c r="E178" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F178" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3983,18 +3447,15 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>667</v>
+        <v>285</v>
       </c>
       <c r="C179" t="n">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="D179" t="n">
-        <v>367</v>
+        <v>14</v>
       </c>
       <c r="E179" t="n">
-        <v>14</v>
-      </c>
-      <c r="F179" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4003,18 +3464,15 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>669</v>
+        <v>295</v>
       </c>
       <c r="C180" t="n">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="D180" t="n">
-        <v>367</v>
+        <v>11.75</v>
       </c>
       <c r="E180" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4023,18 +3481,15 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>670</v>
+        <v>300</v>
       </c>
       <c r="C181" t="n">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="D181" t="n">
-        <v>367</v>
+        <v>10.35</v>
       </c>
       <c r="E181" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F181" t="n">
         <v>146</v>
       </c>
     </row>
@@ -4043,18 +3498,15 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>672</v>
+        <v>310</v>
       </c>
       <c r="C182" t="n">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="D182" t="n">
-        <v>367</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="F182" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4063,18 +3515,15 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>676</v>
+        <v>330</v>
       </c>
       <c r="C183" t="n">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="D183" t="n">
-        <v>367</v>
+        <v>5</v>
       </c>
       <c r="E183" t="n">
-        <v>5</v>
-      </c>
-      <c r="F183" t="n">
         <v>35</v>
       </c>
     </row>
@@ -4083,18 +3532,15 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>679</v>
+        <v>345</v>
       </c>
       <c r="C184" t="n">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="D184" t="n">
-        <v>367</v>
+        <v>3.55</v>
       </c>
       <c r="E184" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="F184" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4103,18 +3549,15 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="C185" t="n">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="D185" t="n">
-        <v>367</v>
+        <v>3.16</v>
       </c>
       <c r="E185" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F185" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4123,18 +3566,15 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>687</v>
+        <v>390</v>
       </c>
       <c r="C186" t="n">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="D186" t="n">
-        <v>367</v>
+        <v>1.45</v>
       </c>
       <c r="E186" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F186" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4143,18 +3583,15 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>692</v>
+        <v>100</v>
       </c>
       <c r="C187" t="n">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="D187" t="n">
-        <v>458</v>
+        <v>158.6</v>
       </c>
       <c r="E187" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="F187" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4163,18 +3600,15 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>697</v>
+        <v>125</v>
       </c>
       <c r="C188" t="n">
-        <v>125</v>
+        <v>458</v>
       </c>
       <c r="D188" t="n">
-        <v>458</v>
+        <v>134.7</v>
       </c>
       <c r="E188" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="F188" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4183,18 +3617,15 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>703</v>
+        <v>155</v>
       </c>
       <c r="C189" t="n">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="D189" t="n">
-        <v>458</v>
+        <v>105.9</v>
       </c>
       <c r="E189" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="F189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4203,18 +3634,15 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>704</v>
+        <v>160</v>
       </c>
       <c r="C190" t="n">
-        <v>160</v>
+        <v>458</v>
       </c>
       <c r="D190" t="n">
-        <v>458</v>
+        <v>102</v>
       </c>
       <c r="E190" t="n">
-        <v>102</v>
-      </c>
-      <c r="F190" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4223,18 +3651,15 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>705</v>
+        <v>165</v>
       </c>
       <c r="C191" t="n">
-        <v>165</v>
+        <v>458</v>
       </c>
       <c r="D191" t="n">
-        <v>458</v>
+        <v>96.38</v>
       </c>
       <c r="E191" t="n">
-        <v>96.38</v>
-      </c>
-      <c r="F191" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4243,18 +3668,15 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>706</v>
+        <v>170</v>
       </c>
       <c r="C192" t="n">
-        <v>170</v>
+        <v>458</v>
       </c>
       <c r="D192" t="n">
-        <v>458</v>
+        <v>92.3</v>
       </c>
       <c r="E192" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="F192" t="n">
         <v>36</v>
       </c>
     </row>
@@ -4263,18 +3685,15 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>707</v>
+        <v>175</v>
       </c>
       <c r="C193" t="n">
-        <v>175</v>
+        <v>458</v>
       </c>
       <c r="D193" t="n">
-        <v>458</v>
+        <v>86.93000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>86.93000000000001</v>
-      </c>
-      <c r="F193" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4283,18 +3702,15 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>708</v>
+        <v>180</v>
       </c>
       <c r="C194" t="n">
-        <v>180</v>
+        <v>458</v>
       </c>
       <c r="D194" t="n">
-        <v>458</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>82.84999999999999</v>
-      </c>
-      <c r="F194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,18 +3719,15 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>709</v>
+        <v>185</v>
       </c>
       <c r="C195" t="n">
-        <v>185</v>
+        <v>458</v>
       </c>
       <c r="D195" t="n">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="E195" t="n">
-        <v>80</v>
-      </c>
-      <c r="F195" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4323,18 +3736,15 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>710</v>
+        <v>190</v>
       </c>
       <c r="C196" t="n">
-        <v>190</v>
+        <v>458</v>
       </c>
       <c r="D196" t="n">
-        <v>458</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="F196" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4343,18 +3753,15 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>712</v>
+        <v>200</v>
       </c>
       <c r="C197" t="n">
-        <v>200</v>
+        <v>458</v>
       </c>
       <c r="D197" t="n">
-        <v>458</v>
+        <v>66.7</v>
       </c>
       <c r="E197" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F197" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4363,18 +3770,15 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>716</v>
+        <v>220</v>
       </c>
       <c r="C198" t="n">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="D198" t="n">
-        <v>458</v>
+        <v>52.53</v>
       </c>
       <c r="E198" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="F198" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4383,18 +3787,15 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>719</v>
+        <v>235</v>
       </c>
       <c r="C199" t="n">
-        <v>235</v>
+        <v>458</v>
       </c>
       <c r="D199" t="n">
-        <v>458</v>
+        <v>41.4</v>
       </c>
       <c r="E199" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="F199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +3804,15 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="C200" t="n">
-        <v>240</v>
+        <v>458</v>
       </c>
       <c r="D200" t="n">
-        <v>458</v>
+        <v>38.25</v>
       </c>
       <c r="E200" t="n">
-        <v>38.25</v>
-      </c>
-      <c r="F200" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4423,18 +3821,15 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>721</v>
+        <v>245</v>
       </c>
       <c r="C201" t="n">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="D201" t="n">
-        <v>458</v>
+        <v>35.28</v>
       </c>
       <c r="E201" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="F201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4443,18 +3838,15 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>724</v>
+        <v>260</v>
       </c>
       <c r="C202" t="n">
-        <v>260</v>
+        <v>458</v>
       </c>
       <c r="D202" t="n">
-        <v>458</v>
+        <v>28.6</v>
       </c>
       <c r="E202" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F202" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4463,18 +3855,15 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>726</v>
+        <v>270</v>
       </c>
       <c r="C203" t="n">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="D203" t="n">
-        <v>458</v>
+        <v>23.02</v>
       </c>
       <c r="E203" t="n">
-        <v>23.02</v>
-      </c>
-      <c r="F203" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4483,18 +3872,15 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>727</v>
+        <v>275</v>
       </c>
       <c r="C204" t="n">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="D204" t="n">
-        <v>458</v>
+        <v>20.94</v>
       </c>
       <c r="E204" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="F204" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4503,18 +3889,15 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>734</v>
+        <v>310</v>
       </c>
       <c r="C205" t="n">
-        <v>310</v>
+        <v>458</v>
       </c>
       <c r="D205" t="n">
-        <v>458</v>
+        <v>10.72</v>
       </c>
       <c r="E205" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="F205" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4523,18 +3906,15 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>765</v>
+        <v>180</v>
       </c>
       <c r="C206" t="n">
-        <v>180</v>
+        <v>584</v>
       </c>
       <c r="D206" t="n">
-        <v>584</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>85.34999999999999</v>
-      </c>
-      <c r="F206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +3923,15 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>766</v>
+        <v>185</v>
       </c>
       <c r="C207" t="n">
-        <v>185</v>
+        <v>584</v>
       </c>
       <c r="D207" t="n">
-        <v>584</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E207" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="F207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,18 +3940,15 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>769</v>
+        <v>200</v>
       </c>
       <c r="C208" t="n">
-        <v>200</v>
+        <v>584</v>
       </c>
       <c r="D208" t="n">
-        <v>584</v>
+        <v>70</v>
       </c>
       <c r="E208" t="n">
-        <v>70</v>
-      </c>
-      <c r="F208" t="n">
         <v>21</v>
       </c>
     </row>
@@ -4583,18 +3957,15 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="C209" t="n">
-        <v>215</v>
+        <v>584</v>
       </c>
       <c r="D209" t="n">
-        <v>584</v>
+        <v>57.9</v>
       </c>
       <c r="E209" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="F209" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4603,18 +3974,15 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>773</v>
+        <v>220</v>
       </c>
       <c r="C210" t="n">
-        <v>220</v>
+        <v>584</v>
       </c>
       <c r="D210" t="n">
-        <v>584</v>
+        <v>54.85</v>
       </c>
       <c r="E210" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="F210" t="n">
         <v>104</v>
       </c>
     </row>
@@ -4623,18 +3991,15 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>774</v>
+        <v>225</v>
       </c>
       <c r="C211" t="n">
-        <v>225</v>
+        <v>584</v>
       </c>
       <c r="D211" t="n">
-        <v>584</v>
+        <v>51.2</v>
       </c>
       <c r="E211" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="F211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4643,18 +4008,15 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>776</v>
+        <v>235</v>
       </c>
       <c r="C212" t="n">
-        <v>235</v>
+        <v>584</v>
       </c>
       <c r="D212" t="n">
-        <v>584</v>
+        <v>45.23</v>
       </c>
       <c r="E212" t="n">
-        <v>45.23</v>
-      </c>
-      <c r="F212" t="n">
         <v>18</v>
       </c>
     </row>
@@ -4663,18 +4025,15 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>777</v>
+        <v>240</v>
       </c>
       <c r="C213" t="n">
-        <v>240</v>
+        <v>584</v>
       </c>
       <c r="D213" t="n">
-        <v>584</v>
+        <v>42.9</v>
       </c>
       <c r="E213" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="F213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +4042,15 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>779</v>
+        <v>250</v>
       </c>
       <c r="C214" t="n">
-        <v>250</v>
+        <v>584</v>
       </c>
       <c r="D214" t="n">
-        <v>584</v>
+        <v>37.86</v>
       </c>
       <c r="E214" t="n">
-        <v>37.86</v>
-      </c>
-      <c r="F214" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4703,18 +4059,15 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>782</v>
+        <v>265</v>
       </c>
       <c r="C215" t="n">
-        <v>265</v>
+        <v>584</v>
       </c>
       <c r="D215" t="n">
-        <v>584</v>
+        <v>30.24</v>
       </c>
       <c r="E215" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="F215" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4723,18 +4076,15 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>783</v>
+        <v>270</v>
       </c>
       <c r="C216" t="n">
-        <v>270</v>
+        <v>584</v>
       </c>
       <c r="D216" t="n">
-        <v>584</v>
+        <v>27.89</v>
       </c>
       <c r="E216" t="n">
-        <v>27.89</v>
-      </c>
-      <c r="F216" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4743,18 +4093,15 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>785</v>
+        <v>280</v>
       </c>
       <c r="C217" t="n">
-        <v>280</v>
+        <v>584</v>
       </c>
       <c r="D217" t="n">
-        <v>584</v>
+        <v>23.3</v>
       </c>
       <c r="E217" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F217" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4763,18 +4110,15 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>787</v>
+        <v>290</v>
       </c>
       <c r="C218" t="n">
-        <v>290</v>
+        <v>584</v>
       </c>
       <c r="D218" t="n">
-        <v>584</v>
+        <v>19.64</v>
       </c>
       <c r="E218" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="F218" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4783,18 +4127,15 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>792</v>
+        <v>315</v>
       </c>
       <c r="C219" t="n">
-        <v>315</v>
+        <v>584</v>
       </c>
       <c r="D219" t="n">
-        <v>584</v>
+        <v>12.85</v>
       </c>
       <c r="E219" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="F219" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4803,18 +4144,15 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>796</v>
+        <v>335</v>
       </c>
       <c r="C220" t="n">
-        <v>335</v>
+        <v>584</v>
       </c>
       <c r="D220" t="n">
-        <v>584</v>
+        <v>9.34</v>
       </c>
       <c r="E220" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="F220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +4161,15 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>803</v>
+        <v>370</v>
       </c>
       <c r="C221" t="n">
-        <v>370</v>
+        <v>584</v>
       </c>
       <c r="D221" t="n">
-        <v>584</v>
+        <v>5.45</v>
       </c>
       <c r="E221" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="F221" t="n">
         <v>27</v>
       </c>
     </row>
@@ -4843,18 +4178,15 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>807</v>
+        <v>110</v>
       </c>
       <c r="C222" t="n">
-        <v>110</v>
+        <v>640</v>
       </c>
       <c r="D222" t="n">
-        <v>640</v>
+        <v>148.03</v>
       </c>
       <c r="E222" t="n">
-        <v>148.03</v>
-      </c>
-      <c r="F222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4863,18 +4195,15 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>830</v>
+        <v>225</v>
       </c>
       <c r="C223" t="n">
-        <v>225</v>
+        <v>640</v>
       </c>
       <c r="D223" t="n">
-        <v>640</v>
+        <v>54.12</v>
       </c>
       <c r="E223" t="n">
-        <v>54.12</v>
-      </c>
-      <c r="F223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,18 +4212,15 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>831</v>
+        <v>230</v>
       </c>
       <c r="C224" t="n">
-        <v>230</v>
+        <v>640</v>
       </c>
       <c r="D224" t="n">
-        <v>640</v>
+        <v>51.61</v>
       </c>
       <c r="E224" t="n">
-        <v>51.61</v>
-      </c>
-      <c r="F224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,18 +4229,15 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>835</v>
+        <v>250</v>
       </c>
       <c r="C225" t="n">
-        <v>250</v>
+        <v>640</v>
       </c>
       <c r="D225" t="n">
-        <v>640</v>
+        <v>39.42</v>
       </c>
       <c r="E225" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="F225" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4923,18 +4246,15 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>836</v>
+        <v>255</v>
       </c>
       <c r="C226" t="n">
-        <v>255</v>
+        <v>640</v>
       </c>
       <c r="D226" t="n">
-        <v>640</v>
+        <v>34.5</v>
       </c>
       <c r="E226" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F226" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4943,18 +4263,15 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>837</v>
+        <v>260</v>
       </c>
       <c r="C227" t="n">
-        <v>260</v>
+        <v>640</v>
       </c>
       <c r="D227" t="n">
-        <v>640</v>
+        <v>33.27</v>
       </c>
       <c r="E227" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="F227" t="n">
         <v>61</v>
       </c>
     </row>
@@ -4963,18 +4280,15 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>839</v>
+        <v>270</v>
       </c>
       <c r="C228" t="n">
-        <v>270</v>
+        <v>640</v>
       </c>
       <c r="D228" t="n">
-        <v>640</v>
+        <v>30</v>
       </c>
       <c r="E228" t="n">
-        <v>30</v>
-      </c>
-      <c r="F228" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4983,18 +4297,15 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>843</v>
+        <v>290</v>
       </c>
       <c r="C229" t="n">
-        <v>290</v>
+        <v>640</v>
       </c>
       <c r="D229" t="n">
-        <v>640</v>
+        <v>21.56</v>
       </c>
       <c r="E229" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="F229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5003,18 +4314,15 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>848</v>
+        <v>315</v>
       </c>
       <c r="C230" t="n">
-        <v>315</v>
+        <v>640</v>
       </c>
       <c r="D230" t="n">
-        <v>640</v>
+        <v>14.55</v>
       </c>
       <c r="E230" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="F230" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5023,18 +4331,15 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>852</v>
+        <v>335</v>
       </c>
       <c r="C231" t="n">
-        <v>335</v>
+        <v>640</v>
       </c>
       <c r="D231" t="n">
-        <v>640</v>
+        <v>10.12</v>
       </c>
       <c r="E231" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="F231" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5043,18 +4348,15 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>853</v>
+        <v>340</v>
       </c>
       <c r="C232" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="D232" t="n">
-        <v>640</v>
+        <v>10.1</v>
       </c>
       <c r="E232" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F232" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5063,18 +4365,15 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>859</v>
+        <v>370</v>
       </c>
       <c r="C233" t="n">
-        <v>370</v>
+        <v>640</v>
       </c>
       <c r="D233" t="n">
-        <v>640</v>
+        <v>7</v>
       </c>
       <c r="E233" t="n">
-        <v>7</v>
-      </c>
-      <c r="F233" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5083,18 +4382,15 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>860</v>
+        <v>375</v>
       </c>
       <c r="C234" t="n">
-        <v>375</v>
+        <v>640</v>
       </c>
       <c r="D234" t="n">
-        <v>640</v>
+        <v>7.1</v>
       </c>
       <c r="E234" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +4399,15 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>861</v>
+        <v>380</v>
       </c>
       <c r="C235" t="n">
-        <v>380</v>
+        <v>640</v>
       </c>
       <c r="D235" t="n">
-        <v>640</v>
+        <v>5.75</v>
       </c>
       <c r="E235" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="F235" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5123,18 +4416,15 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>864</v>
+        <v>120</v>
       </c>
       <c r="C236" t="n">
-        <v>120</v>
+        <v>731</v>
       </c>
       <c r="D236" t="n">
-        <v>731</v>
+        <v>140</v>
       </c>
       <c r="E236" t="n">
-        <v>140</v>
-      </c>
-      <c r="F236" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5143,18 +4433,15 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>866</v>
+        <v>130</v>
       </c>
       <c r="C237" t="n">
-        <v>130</v>
+        <v>731</v>
       </c>
       <c r="D237" t="n">
-        <v>731</v>
+        <v>129.84</v>
       </c>
       <c r="E237" t="n">
-        <v>129.84</v>
-      </c>
-      <c r="F237" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5163,18 +4450,15 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>869</v>
+        <v>145</v>
       </c>
       <c r="C238" t="n">
-        <v>145</v>
+        <v>731</v>
       </c>
       <c r="D238" t="n">
-        <v>731</v>
+        <v>116.2</v>
       </c>
       <c r="E238" t="n">
-        <v>116.2</v>
-      </c>
-      <c r="F238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,18 +4467,15 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>871</v>
+        <v>155</v>
       </c>
       <c r="C239" t="n">
-        <v>155</v>
+        <v>731</v>
       </c>
       <c r="D239" t="n">
-        <v>731</v>
+        <v>107.75</v>
       </c>
       <c r="E239" t="n">
-        <v>107.75</v>
-      </c>
-      <c r="F239" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5203,18 +4484,15 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>872</v>
+        <v>160</v>
       </c>
       <c r="C240" t="n">
-        <v>160</v>
+        <v>731</v>
       </c>
       <c r="D240" t="n">
-        <v>731</v>
+        <v>104.43</v>
       </c>
       <c r="E240" t="n">
-        <v>104.43</v>
-      </c>
-      <c r="F240" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5223,18 +4501,15 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>873</v>
+        <v>165</v>
       </c>
       <c r="C241" t="n">
-        <v>165</v>
+        <v>731</v>
       </c>
       <c r="D241" t="n">
-        <v>731</v>
+        <v>100.22</v>
       </c>
       <c r="E241" t="n">
-        <v>100.22</v>
-      </c>
-      <c r="F241" t="n">
         <v>26</v>
       </c>
     </row>
@@ -5243,18 +4518,15 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>876</v>
+        <v>180</v>
       </c>
       <c r="C242" t="n">
-        <v>180</v>
+        <v>731</v>
       </c>
       <c r="D242" t="n">
-        <v>731</v>
+        <v>87.75</v>
       </c>
       <c r="E242" t="n">
-        <v>87.75</v>
-      </c>
-      <c r="F242" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5263,18 +4535,15 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>878</v>
+        <v>190</v>
       </c>
       <c r="C243" t="n">
-        <v>190</v>
+        <v>731</v>
       </c>
       <c r="D243" t="n">
-        <v>731</v>
+        <v>80.05</v>
       </c>
       <c r="E243" t="n">
-        <v>80.05</v>
-      </c>
-      <c r="F243" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5283,18 +4552,15 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>879</v>
+        <v>195</v>
       </c>
       <c r="C244" t="n">
-        <v>195</v>
+        <v>731</v>
       </c>
       <c r="D244" t="n">
-        <v>731</v>
+        <v>75.7</v>
       </c>
       <c r="E244" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="F244" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5303,18 +4569,15 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>884</v>
+        <v>220</v>
       </c>
       <c r="C245" t="n">
-        <v>220</v>
+        <v>731</v>
       </c>
       <c r="D245" t="n">
-        <v>731</v>
+        <v>60.35</v>
       </c>
       <c r="E245" t="n">
-        <v>60.35</v>
-      </c>
-      <c r="F245" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5323,18 +4586,15 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>886</v>
+        <v>230</v>
       </c>
       <c r="C246" t="n">
-        <v>230</v>
+        <v>731</v>
       </c>
       <c r="D246" t="n">
-        <v>731</v>
+        <v>53.02</v>
       </c>
       <c r="E246" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="F246" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5343,18 +4603,15 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>887</v>
+        <v>235</v>
       </c>
       <c r="C247" t="n">
-        <v>235</v>
+        <v>731</v>
       </c>
       <c r="D247" t="n">
-        <v>731</v>
+        <v>49.5</v>
       </c>
       <c r="E247" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F247" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5363,18 +4620,15 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>888</v>
+        <v>240</v>
       </c>
       <c r="C248" t="n">
-        <v>240</v>
+        <v>731</v>
       </c>
       <c r="D248" t="n">
-        <v>731</v>
+        <v>47.25</v>
       </c>
       <c r="E248" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="F248" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5383,18 +4637,15 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>890</v>
+        <v>250</v>
       </c>
       <c r="C249" t="n">
-        <v>250</v>
+        <v>731</v>
       </c>
       <c r="D249" t="n">
-        <v>731</v>
+        <v>41.5</v>
       </c>
       <c r="E249" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F249" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5403,18 +4654,15 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>894</v>
+        <v>270</v>
       </c>
       <c r="C250" t="n">
-        <v>270</v>
+        <v>731</v>
       </c>
       <c r="D250" t="n">
-        <v>731</v>
+        <v>30.01</v>
       </c>
       <c r="E250" t="n">
-        <v>30.01</v>
-      </c>
-      <c r="F250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5423,18 +4671,15 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>896</v>
+        <v>280</v>
       </c>
       <c r="C251" t="n">
-        <v>280</v>
+        <v>731</v>
       </c>
       <c r="D251" t="n">
-        <v>731</v>
+        <v>27.9</v>
       </c>
       <c r="E251" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F251" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5443,18 +4688,15 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="C252" t="n">
-        <v>300</v>
+        <v>731</v>
       </c>
       <c r="D252" t="n">
-        <v>731</v>
+        <v>19.25</v>
       </c>
       <c r="E252" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="F252" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5463,18 +4705,15 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>903</v>
+        <v>315</v>
       </c>
       <c r="C253" t="n">
-        <v>315</v>
+        <v>731</v>
       </c>
       <c r="D253" t="n">
-        <v>731</v>
+        <v>14.69</v>
       </c>
       <c r="E253" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="F253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5483,18 +4722,15 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>904</v>
+        <v>320</v>
       </c>
       <c r="C254" t="n">
-        <v>320</v>
+        <v>731</v>
       </c>
       <c r="D254" t="n">
-        <v>731</v>
+        <v>15.5</v>
       </c>
       <c r="E254" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F254" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5503,18 +4739,15 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>910</v>
+        <v>350</v>
       </c>
       <c r="C255" t="n">
-        <v>350</v>
+        <v>731</v>
       </c>
       <c r="D255" t="n">
-        <v>731</v>
+        <v>10.3</v>
       </c>
       <c r="E255" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F255" t="n">
         <v>27</v>
       </c>
     </row>
@@ -5523,18 +4756,15 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>913</v>
+        <v>365</v>
       </c>
       <c r="C256" t="n">
-        <v>365</v>
+        <v>731</v>
       </c>
       <c r="D256" t="n">
-        <v>731</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E256" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="F256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5543,18 +4773,15 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>914</v>
+        <v>370</v>
       </c>
       <c r="C257" t="n">
-        <v>370</v>
+        <v>731</v>
       </c>
       <c r="D257" t="n">
-        <v>731</v>
+        <v>6.91</v>
       </c>
       <c r="E257" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="F257" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5563,18 +4790,15 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>917</v>
+        <v>390</v>
       </c>
       <c r="C258" t="n">
-        <v>390</v>
+        <v>731</v>
       </c>
       <c r="D258" t="n">
-        <v>731</v>
+        <v>6.37</v>
       </c>
       <c r="E258" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="F258" t="n">
         <v>12</v>
       </c>
     </row>
